--- a/xlsx/共和国_intext.xlsx
+++ b/xlsx/共和国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>共和国</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>共和國 (雜誌)</t>
+    <t>共和国 (杂志)</t>
   </si>
   <si>
     <t>政策_政策_政治_共和国</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中古時期</t>
+    <t>中古时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E8%B7%AF%E6%96%AF%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
@@ -335,9 +335,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%AE%AA%E6%B3%95</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%91%A8</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -461,19 +458,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>極權</t>
+    <t>极权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E5%BE%B7</t>
@@ -521,37 +515,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>威尼斯共和國</t>
+    <t>威尼斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A5%B3%E7%8E%8B</t>
   </si>
   <si>
-    <t>英國女王</t>
+    <t>英国女王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%85%B1%E5%92%8C%E8%BF%90%E5%8A%A8</t>
@@ -617,9 +611,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%80%BB%E7%9D%A3</t>
   </si>
   <si>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -641,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -671,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>國家主席</t>
+    <t>国家主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -695,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士聯邦委員會</t>
+    <t>瑞士联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
   </si>
   <si>
-    <t>聖馬利諾</t>
+    <t>圣马利诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA%E6%89%A7%E6%94%BF%E5%AE%98</t>
@@ -713,73 +704,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦共和制</t>
+    <t>联邦共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E7%A5%A8</t>
   </si>
   <si>
-    <t>選票</t>
+    <t>选票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>間接選舉</t>
+    <t>间接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0</t>
   </si>
   <si>
-    <t>代議</t>
+    <t>代议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
@@ -839,9 +830,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>社会主义国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -851,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E8%BF%91%E5%B9%B3</t>
   </si>
   <si>
-    <t>習近平</t>
+    <t>习近平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A%E5%88%B6%E5%BA%A6</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>全國人民代表大會</t>
+    <t>全国人民代表大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -881,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E9%9D%A9%E5%91%BD</t>
@@ -893,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>古巴共產黨</t>
+    <t>古巴共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%88%BE%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BE%85</t>
   </si>
   <si>
-    <t>勞爾·卡斯特羅</t>
+    <t>劳尔·卡斯特罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%94%BF%E6%9D%83%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>社會主義共和制</t>
+    <t>社会主义共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E5%9B%BD%E4%BC%9A</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>越南共產黨</t>
+    <t>越南共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E5%AF%8C%E4%BB%B2</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>越南國會</t>
+    <t>越南国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -989,9 +977,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
-    <t>苏联</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83</t>
   </si>
   <si>
@@ -1001,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
@@ -1019,15 +1004,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3</t>
   </si>
   <si>
@@ -1037,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>共同體</t>
+    <t>共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1055,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -3019,7 +2998,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3045,10 +3024,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3074,10 +3053,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3103,10 +3082,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3132,10 +3111,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3161,10 +3140,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3190,10 +3169,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3219,10 +3198,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3248,10 +3227,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3277,10 +3256,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3306,10 +3285,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>10</v>
@@ -3335,10 +3314,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3364,10 +3343,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3393,10 +3372,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3422,10 +3401,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3451,10 +3430,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3480,10 +3459,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3509,10 +3488,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3538,10 +3517,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3567,10 +3546,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3596,10 +3575,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3625,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3654,10 +3633,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3683,10 +3662,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3712,10 +3691,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3741,10 +3720,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3770,10 +3749,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3799,10 +3778,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3828,10 +3807,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3857,10 +3836,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3886,10 +3865,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3915,10 +3894,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3944,10 +3923,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3973,10 +3952,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4002,10 +3981,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4031,10 +4010,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4060,10 +4039,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4089,10 +4068,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4118,10 +4097,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4147,10 +4126,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4176,10 +4155,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4205,10 +4184,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4234,10 +4213,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4263,10 +4242,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4292,10 +4271,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4321,10 +4300,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4350,10 +4329,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4379,10 +4358,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4408,10 +4387,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4437,10 +4416,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4466,10 +4445,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4495,10 +4474,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4524,10 +4503,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4553,10 +4532,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4582,10 +4561,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
@@ -4611,10 +4590,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4640,10 +4619,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4669,10 +4648,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -4698,10 +4677,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4727,10 +4706,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4756,10 +4735,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4785,10 +4764,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4814,10 +4793,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4843,10 +4822,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4872,10 +4851,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -4901,10 +4880,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4930,10 +4909,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4959,10 +4938,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4988,10 +4967,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5017,10 +4996,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5046,10 +5025,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5075,10 +5054,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5104,10 +5083,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5133,10 +5112,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5162,10 +5141,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5191,10 +5170,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5220,10 +5199,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5249,10 +5228,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5278,10 +5257,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5307,10 +5286,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5336,10 +5315,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5365,10 +5344,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5394,10 +5373,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5423,10 +5402,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5452,10 +5431,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5481,10 +5460,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5510,10 +5489,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5539,10 +5518,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -5568,10 +5547,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5597,10 +5576,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5626,10 +5605,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5655,10 +5634,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5684,10 +5663,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5713,10 +5692,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5742,10 +5721,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5771,10 +5750,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5800,10 +5779,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5829,10 +5808,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5858,10 +5837,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5887,10 +5866,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5916,10 +5895,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5945,10 +5924,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5974,10 +5953,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6003,10 +5982,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6032,10 +6011,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6061,10 +6040,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6090,10 +6069,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6119,10 +6098,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6148,10 +6127,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6177,10 +6156,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6206,10 +6185,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6235,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6264,10 +6243,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6293,10 +6272,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6322,10 +6301,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F169" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6351,10 +6330,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F170" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6380,10 +6359,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6409,10 +6388,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6438,10 +6417,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6467,10 +6446,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6496,10 +6475,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6525,10 +6504,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6554,10 +6533,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6583,10 +6562,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6612,10 +6591,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6641,10 +6620,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6670,10 +6649,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -6699,10 +6678,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6728,10 +6707,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6757,10 +6736,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6786,10 +6765,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -6815,10 +6794,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>

--- a/xlsx/共和国_intext.xlsx
+++ b/xlsx/共和国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>共和国</t>
   </si>
@@ -29,7 +29,7 @@
     <t>共和國 (雜誌)</t>
   </si>
   <si>
-    <t>政策_政策_政治_共和国</t>
+    <t>体育运动_体育运动_南非_共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -242,12 +242,6 @@
     <t>Template talk-Forms of government</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>人类社会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
@@ -458,24 +452,30 @@
     <t>皇帝</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
+  </si>
+  <si>
+    <t>意識形態</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
     <t>獨裁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>極權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>政權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
@@ -614,36 +614,42 @@
     <t>公民投票</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%80%BB%E7%9D%A3</t>
+  </si>
+  <si>
+    <t>澳大利亚总督</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
+  </si>
+  <si>
+    <t>梁啟超</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>清朝</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
     <t>君主立憲制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%80%BB%E7%9D%A3</t>
-  </si>
-  <si>
-    <t>澳大利亚总督</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
-  </si>
-  <si>
-    <t>梁啟超</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>清朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
     <t>中國國民黨</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>世襲制</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
@@ -656,12 +662,6 @@
     <t>選舉</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
@@ -788,60 +788,60 @@
     <t>平民</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>社会主义共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思列宁主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>资产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>无产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>列宁主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>斯大林主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
+  </si>
+  <si>
+    <t>一党专政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>社会主义国家</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>人民共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>社会主义共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思列宁主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>资产阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>无产阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>列宁主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>斯大林主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
-  </si>
-  <si>
-    <t>一党专政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>社会主义国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -996,6 +996,18 @@
   </si>
   <si>
     <t>苏维埃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>朝鮮民主主義人民共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
@@ -1431,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1543,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -1717,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -2413,7 +2425,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2523,13 +2535,13 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2552,13 +2564,13 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -2587,7 +2599,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2616,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2645,7 +2657,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2674,7 +2686,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2703,7 +2715,7 @@
         <v>86</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2790,7 +2802,7 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2819,7 +2831,7 @@
         <v>94</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2848,7 +2860,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2877,7 +2889,7 @@
         <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2929,13 +2941,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2958,13 +2970,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2993,7 +3005,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3167,7 +3179,7 @@
         <v>116</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3196,7 +3208,7 @@
         <v>118</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3254,7 +3266,7 @@
         <v>122</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3283,7 +3295,7 @@
         <v>124</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3312,7 +3324,7 @@
         <v>126</v>
       </c>
       <c r="G65" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3341,7 +3353,7 @@
         <v>128</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3544,7 +3556,7 @@
         <v>142</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3602,7 +3614,7 @@
         <v>146</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3660,7 +3672,7 @@
         <v>150</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3683,13 +3695,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3712,13 +3724,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3741,13 +3753,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3770,13 +3782,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3799,10 +3811,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3828,13 +3840,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3857,10 +3869,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3886,10 +3898,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3915,10 +3927,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3944,10 +3956,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3973,13 +3985,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4002,13 +4014,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -4031,10 +4043,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4060,13 +4072,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4089,10 +4101,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4118,13 +4130,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -4147,10 +4159,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4176,10 +4188,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4234,10 +4246,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4263,13 +4275,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4292,13 +4304,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4321,10 +4333,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4350,10 +4362,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4379,10 +4391,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4408,13 +4420,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4437,10 +4449,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4466,10 +4478,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4495,10 +4507,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4524,13 +4536,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4553,13 +4565,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -4582,13 +4594,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4611,13 +4623,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4640,13 +4652,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4669,13 +4681,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4698,13 +4710,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4727,13 +4739,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4756,13 +4768,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4785,13 +4797,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4814,10 +4826,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4843,10 +4855,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4872,13 +4884,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4901,13 +4913,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4930,10 +4942,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4959,10 +4971,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4988,10 +5000,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5017,10 +5029,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5046,10 +5058,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5075,10 +5087,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5104,10 +5116,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5133,10 +5145,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5162,13 +5174,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5191,10 +5203,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5220,13 +5232,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5249,13 +5261,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5278,13 +5290,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5307,10 +5319,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5336,10 +5348,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5365,10 +5377,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5394,10 +5406,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5423,10 +5435,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5452,10 +5464,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5481,10 +5493,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5510,10 +5522,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5539,13 +5551,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6409,13 +6421,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -6438,10 +6450,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6467,10 +6479,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6676,7 +6688,7 @@
         <v>346</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6734,7 +6746,7 @@
         <v>350</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -6792,7 +6804,7 @@
         <v>354</v>
       </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -6815,10 +6827,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6827,6 +6839,64 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186</v>
+      </c>
+      <c r="E187" t="s">
+        <v>357</v>
+      </c>
+      <c r="F187" t="s">
+        <v>358</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4</v>
+      </c>
+      <c r="H187" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>187</v>
+      </c>
+      <c r="E188" t="s">
+        <v>357</v>
+      </c>
+      <c r="F188" t="s">
+        <v>359</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="s">
+        <v>4</v>
+      </c>
+      <c r="I188" t="n">
         <v>3</v>
       </c>
     </row>
